--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3009272.408862455</v>
+        <v>3007384.827346052</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>138.3038958997682</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>26.29646057870826</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.3289799064248</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>18.57223193312474</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>205.3743261851591</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>75.93999108643294</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>142.9299904103444</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385005</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>78.92073824385473</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>6.348656829617719</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>161.8175117958951</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.6292254718848</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>59.7794577366484</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>203.3739553783637</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.75862782376862</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151914</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>143.3158222056527</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151912</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>82.16809304408433</v>
+        <v>78.22041541354989</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.21598883571501</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,16 +4410,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>363.7239216122612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>363.7239216122612</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>216.8339741143508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>216.8339741143508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>216.8339741143508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>80.50506321299906</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245969</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.10866026757</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>984.1461433271581</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>625.8804447204077</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>240.0921921221635</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.708500331692</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2497.746673861499</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2497.746673861499</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2497.746673861499</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2497.746673861499</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>2497.746673861499</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>2497.746673861499</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701559</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020477</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300439</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>583.2726413366769</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>583.2726413366769</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>583.2726413366769</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>435.3595477542838</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>288.4696002563734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>288.4696002563734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557901</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347407</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347407</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347407</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7136853104466</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X13" t="n">
-        <v>985.7136853104466</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y13" t="n">
-        <v>764.9211061669166</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,7 +5273,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
@@ -5294,31 +5294,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706316</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5832,25 +5832,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093321</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2507.25999687553</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>525.6009593486383</v>
+        <v>157.600382103365</v>
       </c>
       <c r="C22" t="n">
-        <v>356.6647764207314</v>
+        <v>157.600382103365</v>
       </c>
       <c r="D22" t="n">
-        <v>356.6647764207314</v>
+        <v>157.600382103365</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>157.600382103365</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>157.600382103365</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>157.600382103365</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>157.600382103365</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,49 +5911,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247848</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>675.0071030383431</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141522</v>
+        <v>675.0071030383431</v>
       </c>
       <c r="W22" t="n">
-        <v>731.0291971045613</v>
+        <v>385.5899330013824</v>
       </c>
       <c r="X22" t="n">
-        <v>525.6009593486383</v>
+        <v>157.600382103365</v>
       </c>
       <c r="Y22" t="n">
-        <v>525.6009593486383</v>
+        <v>157.600382103365</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>634.0455001582217</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646857</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,46 +6151,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1460.776242453085</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1460.776242453085</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028586</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,13 +6224,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336724</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011509</v>
+        <v>786.0822064765197</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>531.3977182706328</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336723</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336724</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336724</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542187</v>
+        <v>439.532429954216</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542187</v>
+        <v>326.3571123076799</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542187</v>
+        <v>232.001338176715</v>
       </c>
       <c r="E31" t="n">
-        <v>439.5324299542187</v>
+        <v>232.001338176715</v>
       </c>
       <c r="F31" t="n">
-        <v>348.4033477376792</v>
+        <v>232.001338176715</v>
       </c>
       <c r="G31" t="n">
-        <v>235.9888913388706</v>
+        <v>232.001338176715</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569672</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818936</v>
+        <v>902.6804289818912</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365247</v>
+        <v>730.4517433652445</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030877</v>
+        <v>565.4200295030851</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,49 +6932,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>452.0983189327497</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,13 +7114,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010315</v>
@@ -7151,31 +7151,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,34 +7184,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>921.5583256030193</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7424,22 +7424,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315606</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311522</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025654</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139973</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.73797368291358</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>223.6742649934482</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,22 +9960,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814688</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>80.50021372615134</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.1031356539322</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305248</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>69.9930901236814</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.1743415069733</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>124.4198406026823</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.08042991715232</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>50.63978772762366</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>22.33570001067349</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>72.20572458002418</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338592</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>23.93099889297511</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>11.54247869489471</v>
+        <v>15.49015632542927</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757213.0894325102</v>
+        <v>757213.0894325103</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787219.9368868767</v>
+        <v>787219.9368868766</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803338</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803336</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803336</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>625646.4955803338</v>
       </c>
-      <c r="H2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="K2" t="n">
-        <v>650915.4197524311</v>
+        <v>650915.4197524317</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914273</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914273</v>
       </c>
     </row>
     <row r="3">
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284536</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.2921356356</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275955</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275955</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,10 +26500,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-172768.4996377498</v>
       </c>
       <c r="C6" t="n">
-        <v>417199.3795767942</v>
+        <v>417199.3795767945</v>
       </c>
       <c r="D6" t="n">
-        <v>417199.3795767944</v>
+        <v>417199.3795767945</v>
       </c>
       <c r="E6" t="n">
-        <v>-6546.536466717356</v>
+        <v>-6643.995592690278</v>
       </c>
       <c r="F6" t="n">
-        <v>518613.500010178</v>
+        <v>518516.0408842058</v>
       </c>
       <c r="G6" t="n">
-        <v>518613.5000101781</v>
+        <v>518516.0408842058</v>
       </c>
       <c r="H6" t="n">
-        <v>518613.5000101784</v>
+        <v>518516.040884206</v>
       </c>
       <c r="I6" t="n">
-        <v>518613.5000101783</v>
+        <v>518516.0408842061</v>
       </c>
       <c r="J6" t="n">
-        <v>342190.2808175855</v>
+        <v>342092.8216916128</v>
       </c>
       <c r="K6" t="n">
-        <v>476914.313783727</v>
+        <v>476895.8200457935</v>
       </c>
       <c r="L6" t="n">
-        <v>511310.9464077746</v>
+        <v>511310.9464077752</v>
       </c>
       <c r="M6" t="n">
-        <v>386852.8379748052</v>
+        <v>386852.8379748041</v>
       </c>
       <c r="N6" t="n">
-        <v>521653.8532086413</v>
+        <v>521653.8532086414</v>
       </c>
       <c r="O6" t="n">
-        <v>521653.8532086422</v>
+        <v>521653.8532086424</v>
       </c>
       <c r="P6" t="n">
-        <v>477491.2479057966</v>
+        <v>477491.247905797</v>
       </c>
     </row>
   </sheetData>
@@ -26701,28 +26701,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26759,10 +26759,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855691</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108358</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26966,34 +26966,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>226.9689958712394</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.983128723806658</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>18.90349860982874</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516595</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>388.3038138085867</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>13.21032716693568</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>306.7938505770476</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>31.48572239862708</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.99689532463643</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>63.3731647155137</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.406874616804998e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,37 +33895,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,37 +34132,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700214</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714617</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35972,13 +35972,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36200,28 +36200,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.7510064679877</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36288,13 +36288,13 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>374.2497035813874</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>244.7129629076453</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330536</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>390.9245907766178</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>534.3608406099567</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>94.40751256795913</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
